--- a/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,215 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>1990-S1</t>
-  </si>
-  <si>
-    <t>1990-S2</t>
-  </si>
-  <si>
-    <t>1991-S1</t>
-  </si>
-  <si>
-    <t>1991-S2</t>
-  </si>
-  <si>
-    <t>1992-S1</t>
-  </si>
-  <si>
-    <t>1992-S2</t>
-  </si>
-  <si>
-    <t>1993-S1</t>
-  </si>
-  <si>
-    <t>1993-S2</t>
-  </si>
-  <si>
-    <t>1994-S1</t>
-  </si>
-  <si>
-    <t>1994-S2</t>
-  </si>
-  <si>
-    <t>1995-S1</t>
-  </si>
-  <si>
-    <t>1995-S2</t>
-  </si>
-  <si>
-    <t>1996-S1</t>
-  </si>
-  <si>
-    <t>1996-S2</t>
-  </si>
-  <si>
-    <t>1997-S1</t>
-  </si>
-  <si>
-    <t>1997-S2</t>
-  </si>
-  <si>
-    <t>1998-S1</t>
-  </si>
-  <si>
-    <t>1998-S2</t>
-  </si>
-  <si>
-    <t>1999-S1</t>
-  </si>
-  <si>
-    <t>1999-S2</t>
-  </si>
-  <si>
-    <t>2000-S1</t>
-  </si>
-  <si>
-    <t>2000-S2</t>
-  </si>
-  <si>
-    <t>2001-S1</t>
-  </si>
-  <si>
-    <t>2001-S2</t>
-  </si>
-  <si>
-    <t>2002-S1</t>
-  </si>
-  <si>
-    <t>2002-S2</t>
-  </si>
-  <si>
-    <t>2003-S1</t>
-  </si>
-  <si>
-    <t>2003-S2</t>
-  </si>
-  <si>
-    <t>2004-S1</t>
-  </si>
-  <si>
-    <t>2004-S2</t>
-  </si>
-  <si>
-    <t>2005-S1</t>
-  </si>
-  <si>
-    <t>2005-S2</t>
-  </si>
-  <si>
-    <t>2006-S1</t>
-  </si>
-  <si>
-    <t>2006-S2</t>
-  </si>
-  <si>
-    <t>2007-S1</t>
-  </si>
-  <si>
-    <t>2007-S2</t>
-  </si>
-  <si>
-    <t>2008-S1</t>
-  </si>
-  <si>
-    <t>2008-S2</t>
-  </si>
-  <si>
-    <t>2009-S1</t>
-  </si>
-  <si>
-    <t>2009-S2</t>
-  </si>
-  <si>
-    <t>2010-S1</t>
-  </si>
-  <si>
-    <t>2010-S2</t>
-  </si>
-  <si>
-    <t>2011-S1</t>
-  </si>
-  <si>
-    <t>2011-S2</t>
-  </si>
-  <si>
-    <t>2012-S1</t>
-  </si>
-  <si>
-    <t>2012-S2</t>
-  </si>
-  <si>
-    <t>2013-S1</t>
-  </si>
-  <si>
-    <t>2013-S2</t>
-  </si>
-  <si>
-    <t>2014-S1</t>
-  </si>
-  <si>
-    <t>2014-S2</t>
-  </si>
-  <si>
-    <t>2015-S1</t>
-  </si>
-  <si>
-    <t>2015-S2</t>
-  </si>
-  <si>
-    <t>2016-S1</t>
-  </si>
-  <si>
-    <t>2016-S2</t>
-  </si>
-  <si>
-    <t>2017-S1</t>
-  </si>
-  <si>
-    <t>2017-S2</t>
-  </si>
-  <si>
-    <t>2018-S1</t>
-  </si>
-  <si>
-    <t>2018-S2</t>
-  </si>
-  <si>
-    <t>2019-S1</t>
-  </si>
-  <si>
-    <t>2019-S2</t>
-  </si>
-  <si>
-    <t>2020-S1</t>
-  </si>
-  <si>
-    <t>2020-S2</t>
-  </si>
-  <si>
-    <t>2021-S1</t>
-  </si>
-  <si>
-    <t>2021-S2</t>
-  </si>
-  <si>
-    <t>Interstate</t>
-  </si>
-  <si>
-    <t>Other Arterial</t>
-  </si>
-  <si>
-    <t>Other than</t>
-  </si>
-  <si>
-    <t>All Systems</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,203 +366,333 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1990-S1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1990-S2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1991-S1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1991-S2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1992-S1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1992-S2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1993-S1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1993-S2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1994-S1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1994-S2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1995-S1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1995-S2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1996-S1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1996-S2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1997-S1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1997-S2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1998-S1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1998-S2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1999-S1</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1999-S2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2000-S1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000-S2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2001-S1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2001-S2</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2002-S1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-S2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-S1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-S2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-S1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-S2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-S1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-S2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-S1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-S2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-S1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2007-S2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-S1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-S2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-S1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-S2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-S1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-S2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-S1</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-S2</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2012-S1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2012-S2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-S1</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-S2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-S1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2014-S2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-S1</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-S2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-S1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-S2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-S1</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-S2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-S1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-S2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-S1</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2019-S2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-S1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-S2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-S1</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-S2</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:65">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Interstate</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>137906.4901192004</v>
@@ -966,9 +887,11 @@
         <v>188628</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Other Arterial</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>345375.152</v>
@@ -1163,9 +1086,11 @@
         <v>384491</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other than</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>147352.1371099443</v>
@@ -1360,9 +1285,11 @@
         <v>181201</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>All Systems</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>630633.7792291448</v>

--- a/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
+++ b/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,16 @@
           <t>2021-S2</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-S1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-S2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -881,10 +891,16 @@
         <v>254312</v>
       </c>
       <c r="BL2" t="n">
-        <v>260299</v>
+        <v>267306</v>
       </c>
       <c r="BM2" t="n">
-        <v>188628</v>
+        <v>290406</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>42122</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1080,10 +1096,16 @@
         <v>522524</v>
       </c>
       <c r="BL3" t="n">
-        <v>527174</v>
+        <v>538903</v>
       </c>
       <c r="BM3" t="n">
-        <v>384491</v>
+        <v>582859</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>85186</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1279,10 +1301,16 @@
         <v>249054</v>
       </c>
       <c r="BL4" t="n">
-        <v>254774</v>
+        <v>259743</v>
       </c>
       <c r="BM4" t="n">
-        <v>181201</v>
+        <v>280148</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>41416</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1478,10 +1506,16 @@
         <v>1025890</v>
       </c>
       <c r="BL5" t="n">
-        <v>1042247</v>
+        <v>1065952</v>
       </c>
       <c r="BM5" t="n">
-        <v>754320</v>
+        <v>1153412</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>168724</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
